--- a/medicine/Pharmacie/Société_d'histoire_de_la_pharmacie/Société_d'histoire_de_la_pharmacie.xlsx
+++ b/medicine/Pharmacie/Société_d'histoire_de_la_pharmacie/Société_d'histoire_de_la_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+          <t>Société_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société d'histoire de la pharmacie est une société savante française créée en 1913. Elle est notamment l'éditeur de la revue d'histoire de la pharmacie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+          <t>Société_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous l'impulsion de Eugène-Humbert Guitard, Charles Buchet et Paul Dorveaux, soixante-dix fondateurs se réunirent le 1er février 1913 pour créer la Société d'Histoire de la Pharmacie. Léon Guignard était président d'honneur lors de cette séance[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous l'impulsion de Eugène-Humbert Guitard, Charles Buchet et Paul Dorveaux, soixante-dix fondateurs se réunirent le 1er février 1913 pour créer la Société d'Histoire de la Pharmacie. Léon Guignard était président d'honneur lors de cette séance.
 Le 1er juillet 1966 elle est reconnue d'utilité publique.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+          <t>Société_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+          <t>Société_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,17 +585,11 @@
           <t>Missions et moyens d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société d'histoire de la pharmacie a pour but l’étude de tout ce qui intéresse le passé des sciences, de l’art et de la profession pharmaceutiques ainsi que la conservation des manuscrits, ouvrages, monuments et objets qui s’y rattachent, soit au moyen de démarches tendant à éviter leur destruction ou leur détérioration, soit par la constitution de collections, notamment d’une bibliothèque et d’un musée.
-Prix Maurice Bouvet et Henri Bonnemain
-La Société d'histoire de la pharmacie dote, à parts égales avec la famille Bonnemain, un prix destiné à récompenser l'auteur d’une thèse ou d'un travail relatif à l'histoire de la pharmacie, rédigé en langue française et publié préférentiellement depuis moins de deux ans. À équivalence de mérite, la préférence est donnée à un candidat titulaire du diplôme d'État de docteur en pharmacie ou d’un diplôme équivalent de l’Union européenne. Ce prix est décerné annuellement par l'Académie nationale de pharmacie.
-Liste des lauréats du prix de thèse Maurice Bouvet et Henri Bonnemain
-Médaille Parmentier
-La Médaille Parmentier est une distinction créée, en 2013, par la Société d'histoire de la pharmacie à l'occasion du centenaire de cette la société et du bicentenaire du décès d'Antoine Parmentier. Elle récompense une carrière d'excellence, de niveau international, dans le domaine de l'histoire de la pharmacie[4].
-Liste des récipiendaires de la Médaille Parmentier
-Actions de mécénat
-En 2021, la société a participé au financement de la restauration de la tombe de Louis-Nicolas Vauquelin située à Saint-André-d'Hébertot. Elle a également soutenu le projet de rapatriement du buste en marbre du professeur Albert Goris. La société a aussi participé à la remise en état de la "Pagode", meuble central hérité de l’exposition universelle de 1889 du musée François Tillequin situé dans la faculté de pharmacie de Paris, financement poursuivi pour l'année 2022[5].
 </t>
         </is>
       </c>
@@ -590,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+          <t>Société_d'histoire_de_la_pharmacie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +615,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Missions et moyens d'action</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix Maurice Bouvet et Henri Bonnemain</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société d'histoire de la pharmacie dote, à parts égales avec la famille Bonnemain, un prix destiné à récompenser l'auteur d’une thèse ou d'un travail relatif à l'histoire de la pharmacie, rédigé en langue française et publié préférentiellement depuis moins de deux ans. À équivalence de mérite, la préférence est donnée à un candidat titulaire du diplôme d'État de docteur en pharmacie ou d’un diplôme équivalent de l’Union européenne. Ce prix est décerné annuellement par l'Académie nationale de pharmacie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Société_d'histoire_de_la_pharmacie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missions et moyens d'action</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médaille Parmentier</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Médaille Parmentier est une distinction créée, en 2013, par la Société d'histoire de la pharmacie à l'occasion du centenaire de cette la société et du bicentenaire du décès d'Antoine Parmentier. Elle récompense une carrière d'excellence, de niveau international, dans le domaine de l'histoire de la pharmacie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Société_d'histoire_de_la_pharmacie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Missions et moyens d'action</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Actions de mécénat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, la société a participé au financement de la restauration de la tombe de Louis-Nicolas Vauquelin située à Saint-André-d'Hébertot. Elle a également soutenu le projet de rapatriement du buste en marbre du professeur Albert Goris. La société a aussi participé à la remise en état de la "Pagode", meuble central hérité de l’exposition universelle de 1889 du musée François Tillequin situé dans la faculté de pharmacie de Paris, financement poursuivi pour l'année 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Société_d'histoire_de_la_pharmacie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27histoire_de_la_pharmacie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Diplôme d'université d'histoire de la pharmacie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 2016, la Société d'histoire de la pharmacie participe activement au diplôme d'université d'histoire de la pharmacie, délivré par la faculté de pharmacie de Paris . L'objectif de cette formation est de proposer un enseignement d'histoire de la pharmacie avec une présentation des principaux thèmes de l’histoire de la pharmacie (les sources, l'histoire des apothicaires, les origines de la science, la chimie, etc.) ainsi que des événements marquants de l'évolution des médicaments et des actions de pharmaciens célèbres. La coordination pédagogique du DU est assuré par Olivier Lafont, ancien président de la société et plusieurs de ses membres y sont intervenants[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 2016, la Société d'histoire de la pharmacie participe activement au diplôme d'université d'histoire de la pharmacie, délivré par la faculté de pharmacie de Paris . L'objectif de cette formation est de proposer un enseignement d'histoire de la pharmacie avec une présentation des principaux thèmes de l’histoire de la pharmacie (les sources, l'histoire des apothicaires, les origines de la science, la chimie, etc.) ainsi que des événements marquants de l'évolution des médicaments et des actions de pharmaciens célèbres. La coordination pédagogique du DU est assuré par Olivier Lafont, ancien président de la société et plusieurs de ses membres y sont intervenants.
 </t>
         </is>
       </c>
